--- a/_resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
@@ -179,10 +179,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>key=Str,Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cpp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -228,6 +224,10 @@
   </si>
   <si>
     <t>Description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=Int,Id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +838,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -866,10 +866,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -894,32 +894,32 @@
     </row>
     <row r="3" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -951,22 +951,22 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>

--- a/_resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140"/>
+    <workbookView xWindow="4140" yWindow="0" windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="frameconstant" sheetId="1" r:id="rId1"/>
+    <sheet name="constant" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>配置说明</t>
   </si>
@@ -219,15 +219,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>xml=frameconstant</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>key=Int,Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml=constant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp=Constant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -838,14 +846,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
@@ -866,10 +874,13 @@
   <sheetData>
     <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -906,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>12</v>
@@ -951,7 +962,7 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>15</v>
@@ -1362,8 +1373,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
+++ b/_resource/excel/table/K-框架-全局常量-(框架使用,请勿修改).xlsx
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="2" shapeId="0">
+    <comment ref="E44" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,15 +146,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>配置说明</t>
   </si>
   <si>
     <t>字段名(不能改这个字段)</t>
-  </si>
-  <si>
-    <t>键值</t>
   </si>
   <si>
     <t>设置数值</t>
@@ -211,10 +208,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Value</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -223,10 +216,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>key=Int,Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>xml=constant</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -235,14 +224,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
+    <t>key=Str,Name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -842,48 +831,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="27.5" style="6" customWidth="1"/>
-    <col min="12" max="13" width="17.125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="19.125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19.625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="16" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="6"/>
+    <col min="5" max="5" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="6" customWidth="1"/>
+    <col min="11" max="12" width="17.125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="6" customWidth="1"/>
+    <col min="17" max="17" width="19.625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="16" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="27">
         <v>0</v>
       </c>
@@ -899,97 +887,85 @@
       <c r="E2" s="27">
         <v>3</v>
       </c>
-      <c r="F2" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="28" t="s">
+    </row>
+    <row r="4" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+    </row>
+    <row r="5" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -998,16 +974,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1016,359 +991,313 @@
         <v>0</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
+        <v>7</v>
+      </c>
+      <c r="E9" s="14">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="19"/>
       <c r="B36" s="17"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
       <c r="B37" s="17"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
       <c r="B38" s="17"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19"/>
       <c r="B39" s="17"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="19"/>
       <c r="B40" s="17"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="3"/>
       <c r="C42" s="21"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="3"/>
       <c r="C43" s="21"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="22"/>
       <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="22"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E45" s="23"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="22"/>
       <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="22"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="22"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
       <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="22"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="22"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F57" s="23"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E57" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
